--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631110.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{85AC93C9-03DE-4B0A-A850-0050FD984B6F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C022F1-B450-4BE8-9BE7-984232F0602A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-18T065223.961" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-02-24T061340.827" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="72">
   <si>
     <t>Do Ty</t>
   </si>
@@ -1077,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ30"/>
+  <dimension ref="A1:AZ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4112,49 +4112,165 @@
       </c>
     </row>
     <row r="27" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27">
+        <v>24001041</v>
+      </c>
+      <c r="D27">
+        <v>1201</v>
+      </c>
+      <c r="E27" s="1">
+        <v>45342</v>
+      </c>
       <c r="F27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G27">
-        <v>119.16</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H27">
-        <v>119.16</v>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I27" t="s">
+        <v>55</v>
+      </c>
+      <c r="O27" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>56</v>
+      </c>
+      <c r="R27" t="s">
+        <v>57</v>
+      </c>
+      <c r="T27" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" t="s">
+        <v>59</v>
+      </c>
+      <c r="V27" t="s">
+        <v>60</v>
+      </c>
+      <c r="W27" t="s">
+        <v>61</v>
+      </c>
+      <c r="X27">
+        <v>2104357</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>45342</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA27">
+        <v>2</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>56</v>
       </c>
       <c r="AG27">
-        <v>213</v>
+        <v>3</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>45342</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO27" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP27">
+        <v>1201</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR27">
+        <v>278248</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX27" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY27">
+        <v>631110</v>
+      </c>
+      <c r="AZ27">
+        <v>1201.63111</v>
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G28">
-        <v>119.16</v>
+        <v>121.46</v>
       </c>
       <c r="H28">
-        <v>119.16</v>
+        <v>121.46</v>
       </c>
       <c r="AG28">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G29">
-        <v>119.16</v>
+        <v>121.46</v>
       </c>
       <c r="H29">
-        <v>119.16</v>
+        <v>121.46</v>
       </c>
       <c r="AG29">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>121.46</v>
+      </c>
+      <c r="H30">
+        <v>121.46</v>
+      </c>
+      <c r="AG30">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="31" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
         <v>71</v>
       </c>
     </row>

--- a/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631110.xlsx
+++ b/PROJECTS MACRO/Profit Loss/Tarikan JDE/1201.631110.xlsx
@@ -8,19 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.8.0.35\rpa$\RPA Excel Template\Accounting Finance\Santy\Profit Loss\Tarikan JDE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0C022F1-B450-4BE8-9BE7-984232F0602A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1493182B-A264-44FC-A851-F1F1C0CA04D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="Book1 - 2024-02-24T061340.827" sheetId="1" r:id="rId1"/>
+    <sheet name="Book1 - 2024-03-03T061420.165" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="72">
   <si>
     <t>Do Ty</t>
   </si>
@@ -1077,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ31"/>
+  <dimension ref="A1:AZ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,10 +1261,10 @@
         <v>54</v>
       </c>
       <c r="G2">
-        <v>8.39</v>
+        <v>7.55</v>
       </c>
       <c r="H2">
-        <v>8.39</v>
+        <v>7.55</v>
       </c>
       <c r="I2" t="s">
         <v>55</v>
@@ -1300,7 +1300,7 @@
         <v>56</v>
       </c>
       <c r="AA2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB2" t="s">
         <v>56</v>
@@ -1339,7 +1339,7 @@
         <v>64</v>
       </c>
       <c r="AR2">
-        <v>239927</v>
+        <v>227112</v>
       </c>
       <c r="AU2" t="s">
         <v>56</v>
@@ -1377,10 +1377,10 @@
         <v>54</v>
       </c>
       <c r="G3">
-        <v>7.55</v>
+        <v>8.39</v>
       </c>
       <c r="H3">
-        <v>7.55</v>
+        <v>8.39</v>
       </c>
       <c r="I3" t="s">
         <v>55</v>
@@ -1416,7 +1416,7 @@
         <v>56</v>
       </c>
       <c r="AA3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB3" t="s">
         <v>56</v>
@@ -1455,7 +1455,7 @@
         <v>64</v>
       </c>
       <c r="AR3">
-        <v>227112</v>
+        <v>239927</v>
       </c>
       <c r="AU3" t="s">
         <v>56</v>
@@ -1642,7 +1642,7 @@
         <v>56</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB5" t="s">
         <v>56</v>
@@ -1657,7 +1657,7 @@
         <v>56</v>
       </c>
       <c r="AG5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH5" t="s">
         <v>56</v>
@@ -1681,7 +1681,7 @@
         <v>64</v>
       </c>
       <c r="AR5">
-        <v>89745</v>
+        <v>90594</v>
       </c>
       <c r="AU5" t="s">
         <v>56</v>
@@ -1718,6 +1718,12 @@
       <c r="F6" t="s">
         <v>67</v>
       </c>
+      <c r="G6">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="H6">
+        <v>2.1800000000000002</v>
+      </c>
       <c r="I6" t="s">
         <v>55</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>56</v>
       </c>
       <c r="AA6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB6" t="s">
         <v>56</v>
@@ -1767,7 +1773,7 @@
         <v>56</v>
       </c>
       <c r="AG6">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH6" t="s">
         <v>56</v>
@@ -1791,7 +1797,7 @@
         <v>64</v>
       </c>
       <c r="AR6">
-        <v>90594</v>
+        <v>264575</v>
       </c>
       <c r="AU6" t="s">
         <v>56</v>
@@ -1829,10 +1835,10 @@
         <v>67</v>
       </c>
       <c r="G7">
-        <v>2.1800000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="H7">
-        <v>2.1800000000000002</v>
+        <v>2.23</v>
       </c>
       <c r="I7" t="s">
         <v>55</v>
@@ -1868,7 +1874,7 @@
         <v>56</v>
       </c>
       <c r="AA7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB7" t="s">
         <v>56</v>
@@ -1907,7 +1913,7 @@
         <v>64</v>
       </c>
       <c r="AR7">
-        <v>264575</v>
+        <v>265267</v>
       </c>
       <c r="AU7" t="s">
         <v>56</v>
@@ -1944,12 +1950,6 @@
       <c r="F8" t="s">
         <v>67</v>
       </c>
-      <c r="G8">
-        <v>2.23</v>
-      </c>
-      <c r="H8">
-        <v>2.23</v>
-      </c>
       <c r="I8" t="s">
         <v>55</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>56</v>
       </c>
       <c r="AA8">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB8" t="s">
         <v>56</v>
@@ -2023,7 +2023,7 @@
         <v>64</v>
       </c>
       <c r="AR8">
-        <v>265267</v>
+        <v>89745</v>
       </c>
       <c r="AU8" t="s">
         <v>56</v>
@@ -2061,10 +2061,10 @@
         <v>67</v>
       </c>
       <c r="G9">
-        <v>2.2400000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="H9">
-        <v>2.2400000000000002</v>
+        <v>0.76</v>
       </c>
       <c r="I9" t="s">
         <v>55</v>
@@ -2100,7 +2100,7 @@
         <v>56</v>
       </c>
       <c r="AA9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB9" t="s">
         <v>56</v>
@@ -2115,7 +2115,7 @@
         <v>56</v>
       </c>
       <c r="AG9">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="AH9" t="s">
         <v>56</v>
@@ -2139,7 +2139,7 @@
         <v>64</v>
       </c>
       <c r="AR9">
-        <v>91479</v>
+        <v>92908</v>
       </c>
       <c r="AU9" t="s">
         <v>56</v>
@@ -2176,12 +2176,6 @@
       <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="G10">
-        <v>1.59</v>
-      </c>
-      <c r="H10">
-        <v>1.59</v>
-      </c>
       <c r="I10" t="s">
         <v>55</v>
       </c>
@@ -2216,7 +2210,7 @@
         <v>56</v>
       </c>
       <c r="AA10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB10" t="s">
         <v>56</v>
@@ -2231,7 +2225,7 @@
         <v>56</v>
       </c>
       <c r="AG10">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="AH10" t="s">
         <v>56</v>
@@ -2255,7 +2249,7 @@
         <v>64</v>
       </c>
       <c r="AR10">
-        <v>91480</v>
+        <v>89738</v>
       </c>
       <c r="AU10" t="s">
         <v>56</v>
@@ -2292,12 +2286,6 @@
       <c r="F11" t="s">
         <v>67</v>
       </c>
-      <c r="G11">
-        <v>0.76</v>
-      </c>
-      <c r="H11">
-        <v>0.76</v>
-      </c>
       <c r="I11" t="s">
         <v>55</v>
       </c>
@@ -2332,7 +2320,7 @@
         <v>56</v>
       </c>
       <c r="AA11">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB11" t="s">
         <v>56</v>
@@ -2371,7 +2359,7 @@
         <v>64</v>
       </c>
       <c r="AR11">
-        <v>92908</v>
+        <v>93776</v>
       </c>
       <c r="AU11" t="s">
         <v>56</v>
@@ -2408,6 +2396,12 @@
       <c r="F12" t="s">
         <v>67</v>
       </c>
+      <c r="G12">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="H12">
+        <v>2.2400000000000002</v>
+      </c>
       <c r="I12" t="s">
         <v>55</v>
       </c>
@@ -2442,7 +2436,7 @@
         <v>56</v>
       </c>
       <c r="AA12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="s">
         <v>56</v>
@@ -2457,7 +2451,7 @@
         <v>56</v>
       </c>
       <c r="AG12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AH12" t="s">
         <v>56</v>
@@ -2481,7 +2475,7 @@
         <v>64</v>
       </c>
       <c r="AR12">
-        <v>93776</v>
+        <v>91479</v>
       </c>
       <c r="AU12" t="s">
         <v>56</v>
@@ -2518,6 +2512,12 @@
       <c r="F13" t="s">
         <v>67</v>
       </c>
+      <c r="G13">
+        <v>1.59</v>
+      </c>
+      <c r="H13">
+        <v>1.59</v>
+      </c>
       <c r="I13" t="s">
         <v>55</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>56</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AB13" t="s">
         <v>56</v>
@@ -2567,7 +2567,7 @@
         <v>56</v>
       </c>
       <c r="AG13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="s">
         <v>56</v>
@@ -2591,7 +2591,7 @@
         <v>64</v>
       </c>
       <c r="AR13">
-        <v>89738</v>
+        <v>91480</v>
       </c>
       <c r="AU13" t="s">
         <v>56</v>
@@ -2629,10 +2629,10 @@
         <v>67</v>
       </c>
       <c r="G14">
-        <v>0.16</v>
+        <v>1.85</v>
       </c>
       <c r="H14">
-        <v>0.16</v>
+        <v>1.85</v>
       </c>
       <c r="I14" t="s">
         <v>55</v>
@@ -2668,7 +2668,7 @@
         <v>56</v>
       </c>
       <c r="AA14">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AB14" t="s">
         <v>56</v>
@@ -2683,7 +2683,7 @@
         <v>56</v>
       </c>
       <c r="AG14">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="s">
         <v>56</v>
@@ -2744,12 +2744,6 @@
       <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="G15">
-        <v>0.96</v>
-      </c>
-      <c r="H15">
-        <v>0.96</v>
-      </c>
       <c r="I15" t="s">
         <v>55</v>
       </c>
@@ -2784,7 +2778,7 @@
         <v>56</v>
       </c>
       <c r="AA15">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AB15" t="s">
         <v>56</v>
@@ -2799,7 +2793,7 @@
         <v>56</v>
       </c>
       <c r="AG15">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="AH15" t="s">
         <v>56</v>
@@ -2823,7 +2817,7 @@
         <v>64</v>
       </c>
       <c r="AR15">
-        <v>89712</v>
+        <v>89719</v>
       </c>
       <c r="AU15" t="s">
         <v>56</v>
@@ -2977,10 +2971,10 @@
         <v>67</v>
       </c>
       <c r="G17">
-        <v>1.85</v>
+        <v>0.96</v>
       </c>
       <c r="H17">
-        <v>1.85</v>
+        <v>0.96</v>
       </c>
       <c r="I17" t="s">
         <v>55</v>
@@ -3016,7 +3010,7 @@
         <v>56</v>
       </c>
       <c r="AA17">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AB17" t="s">
         <v>56</v>
@@ -3031,7 +3025,7 @@
         <v>56</v>
       </c>
       <c r="AG17">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AH17" t="s">
         <v>56</v>
@@ -3092,6 +3086,12 @@
       <c r="F18" t="s">
         <v>67</v>
       </c>
+      <c r="G18">
+        <v>0.16</v>
+      </c>
+      <c r="H18">
+        <v>0.16</v>
+      </c>
       <c r="I18" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>56</v>
       </c>
       <c r="AA18">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AB18" t="s">
         <v>56</v>
@@ -3141,7 +3141,7 @@
         <v>56</v>
       </c>
       <c r="AG18">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AH18" t="s">
         <v>56</v>
@@ -3165,7 +3165,7 @@
         <v>64</v>
       </c>
       <c r="AR18">
-        <v>89719</v>
+        <v>89712</v>
       </c>
       <c r="AU18" t="s">
         <v>56</v>
@@ -4228,49 +4228,281 @@
       </c>
     </row>
     <row r="28" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28">
+        <v>24001045</v>
+      </c>
+      <c r="D28">
+        <v>1201</v>
+      </c>
+      <c r="E28" s="1">
+        <v>45348</v>
+      </c>
       <c r="F28" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G28">
-        <v>121.46</v>
+        <v>7.55</v>
       </c>
       <c r="H28">
-        <v>121.46</v>
+        <v>7.55</v>
+      </c>
+      <c r="I28" t="s">
+        <v>55</v>
+      </c>
+      <c r="O28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>56</v>
+      </c>
+      <c r="R28" t="s">
+        <v>57</v>
+      </c>
+      <c r="T28" t="s">
+        <v>58</v>
+      </c>
+      <c r="U28" t="s">
+        <v>59</v>
+      </c>
+      <c r="V28" t="s">
+        <v>60</v>
+      </c>
+      <c r="W28" t="s">
+        <v>61</v>
+      </c>
+      <c r="X28">
+        <v>2105398</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA28">
+        <v>2</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>56</v>
       </c>
       <c r="AG28">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO28" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP28">
+        <v>1201</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR28">
+        <v>227112</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY28">
+        <v>631110</v>
+      </c>
+      <c r="AZ28">
+        <v>1201.63111</v>
       </c>
     </row>
     <row r="29" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <v>24001046</v>
+      </c>
+      <c r="D29">
+        <v>1201</v>
+      </c>
+      <c r="E29" s="1">
+        <v>45348</v>
+      </c>
       <c r="F29" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G29">
-        <v>121.46</v>
+        <v>0.87</v>
       </c>
       <c r="H29">
-        <v>121.46</v>
+        <v>0.87</v>
+      </c>
+      <c r="I29" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>56</v>
+      </c>
+      <c r="R29" t="s">
+        <v>57</v>
+      </c>
+      <c r="T29" t="s">
+        <v>58</v>
+      </c>
+      <c r="U29" t="s">
+        <v>59</v>
+      </c>
+      <c r="V29" t="s">
+        <v>60</v>
+      </c>
+      <c r="W29" t="s">
+        <v>61</v>
+      </c>
+      <c r="X29">
+        <v>2105413</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>45348</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA29">
+        <v>2</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF29" t="s">
+        <v>56</v>
       </c>
       <c r="AG29">
-        <v>216</v>
+        <v>1</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45348</v>
+      </c>
+      <c r="AN29" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO29" t="s">
+        <v>63</v>
+      </c>
+      <c r="AP29">
+        <v>1201</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>64</v>
+      </c>
+      <c r="AR29">
+        <v>88703</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>65</v>
+      </c>
+      <c r="AX29" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY29">
+        <v>631110</v>
+      </c>
+      <c r="AZ29">
+        <v>1201.63111</v>
       </c>
     </row>
     <row r="30" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G30">
-        <v>121.46</v>
+        <v>129.88</v>
       </c>
       <c r="H30">
-        <v>121.46</v>
+        <v>129.88</v>
       </c>
       <c r="AG30">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="31" spans="1:52" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31">
+        <v>129.88</v>
+      </c>
+      <c r="H31">
+        <v>129.88</v>
+      </c>
+      <c r="AG31">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:52" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32">
+        <v>129.88</v>
+      </c>
+      <c r="H32">
+        <v>129.88</v>
+      </c>
+      <c r="AG32">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>71</v>
       </c>
     </row>
